--- a/DataVisualization/Week2/Economist_us-trade-manufacturing.xlsx
+++ b/DataVisualization/Week2/Economist_us-trade-manufacturing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aamol\GitRepos\msdatascience\DataVisualization\Week2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aamol\Repos\GithubRepos\msdatascience\DataVisualization\Week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Economist_us-trade-manufacturin" sheetId="1" r:id="rId1"/>
@@ -536,11 +536,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -852,11 +855,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="222947024"/>
-        <c:axId val="222948592"/>
+        <c:axId val="332510680"/>
+        <c:axId val="332511464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="222947024"/>
+        <c:axId val="332510680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222948592"/>
+        <c:crossAx val="332511464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -907,7 +910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222948592"/>
+        <c:axId val="332511464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222947024"/>
+        <c:crossAx val="332510680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1040,7 +1043,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Manufacturing employment (million)</a:t>
+              <a:t>Manufacturing employment  /jobs (million)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1272,8 +1275,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="222948984"/>
-        <c:axId val="222950160"/>
+        <c:axId val="332513032"/>
+        <c:axId val="332511856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1478,7 +1481,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222948984"/>
+        <c:axId val="332513032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,7 +1523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222950160"/>
+        <c:crossAx val="332511856"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1528,7 +1531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222950160"/>
+        <c:axId val="332511856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222948984"/>
+        <c:crossAx val="332513032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2726,15 +2729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>606426</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2756,15 +2759,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>30162</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2786,15 +2789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2803,8 +2806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6086475" y="5362575"/>
-          <a:ext cx="4886325" cy="285750"/>
+          <a:off x="6213475" y="3514725"/>
+          <a:ext cx="4886325" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2848,15 +2851,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2865,8 +2868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="1885951"/>
-          <a:ext cx="4886325" cy="590550"/>
+          <a:off x="6223000" y="181611"/>
+          <a:ext cx="4886325" cy="563880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3184,17 +3187,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1995</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>17.244583330000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1996</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>17.236750000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1997</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>17.417833330000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1998</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1999</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>17.32266667</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2000</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>17.265250000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2001</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>16.440583329999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2002</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>15.256833329999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2003</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>14.5085</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2004</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>14.31475</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2005</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>14.225666670000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2006</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>14.156499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2007</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>13.87783333</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2008</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2009</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>11.84783333</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2010</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>11.52866667</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2011</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>11.727083329999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2012</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>11.927250000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2013</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>12.019166670000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2014</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>12.18416667</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2015</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>12.31808333</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2016</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>12.28783333</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3460,7 +3463,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3470,7 +3473,8 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3495,9 +3499,9 @@
       <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3520,7 +3524,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3543,7 +3547,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3566,7 +3570,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3589,7 +3593,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3612,7 +3616,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3635,7 +3639,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3658,7 +3662,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3681,7 +3685,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3704,7 +3708,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3727,7 +3731,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3750,7 +3754,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3773,7 +3777,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3796,7 +3800,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3819,7 +3823,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3842,7 +3846,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3865,7 +3869,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3888,7 +3892,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3911,7 +3915,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3934,7 +3938,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3957,7 +3961,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3980,7 +3984,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4003,7 +4007,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4026,7 +4030,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4049,7 +4053,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4069,7 +4073,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4089,7 +4093,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4109,7 +4113,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4129,7 +4133,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4149,7 +4153,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4169,7 +4173,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4189,7 +4193,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4209,7 +4213,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4229,7 +4233,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4249,7 +4253,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4269,7 +4273,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4289,7 +4293,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4309,7 +4313,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>

--- a/DataVisualization/Week2/Economist_us-trade-manufacturing.xlsx
+++ b/DataVisualization/Week2/Economist_us-trade-manufacturing.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Economist_us-trade-manufacturin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -855,11 +854,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="332510680"/>
-        <c:axId val="332511464"/>
+        <c:axId val="333002504"/>
+        <c:axId val="333007600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="332510680"/>
+        <c:axId val="333002504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332511464"/>
+        <c:crossAx val="333007600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -910,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332511464"/>
+        <c:axId val="333007600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332510680"/>
+        <c:crossAx val="333002504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1275,8 +1274,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="332513032"/>
-        <c:axId val="332511856"/>
+        <c:axId val="333003680"/>
+        <c:axId val="333002896"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1481,7 +1480,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332513032"/>
+        <c:axId val="333003680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332511856"/>
+        <c:crossAx val="333002896"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1531,7 +1530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332511856"/>
+        <c:axId val="333002896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332513032"/>
+        <c:crossAx val="333003680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3489,851 +3488,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>